--- a/02_MasterWifoMannheim/99_Backup/Course80.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course80.xlsx
@@ -1,142 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3D0DB4B639A20115994807554D7FCB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8A3766-6142-4105-948B-2FC12934B70E}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 630 Corporate Governance</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>In this course, conflicts of interest between the firm and its stakeholders will be analyzed and mechanisms to mitigate these conflicts will be discussed. theoretical models on information asymmetries and corporate governance problems are discussed. The second part of the course will focus on common results of corporate governance problems. We then discuss various concepts of corporate social responsibility and ways to measure a firm’s ESG activities. Finally, we examine several internal and external governance mechanisms, including the market for corporate control, ownership structure, executive compensation, and the role of the board of directors. Special emphasis will be on the valuation effect of corporate governance and the question whether some corporate governance mechanisms are superior to others.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students should develop an understanding of important issues in corporate governance and of its relevance in a social, political, and economic context.They will be able to apply theoretical models on principal-agent conflicts to different corporate governance problems. They will learn how firms’ ESG activities are measured and the challenges arising from different measurement approaches. know how to assess the effectiveness of different corporate governance mechanisms. addition to their knowledge on corporate governance theory, they will be able to critically discuss the empirical evidence on the importance and effectiveness of various corporate governance mechanisms.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Literature collection for self-study is provided.</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Alexandra Niessen-Ruenzi</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>and Insurance (FIN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,148 +420,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FIN 630 Corporate Governance</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In this course, conflicts of interest between the firm and its stakeholders will be analyzed and mechanisms to mitigate these conflicts will be discussed. theoretical models on information asymmetries and corporate governance problems are discussed. The second part of the course will focus on common results of corporate governance problems. We then discuss various concepts of corporate social responsibility and ways to measure a firm’s ESG activities. Finally, we examine several internal and external governance mechanisms, including the market for corporate control, ownership structure, executive compensation, and the role of the board of directors. Special emphasis will be on the valuation effect of corporate governance and the question whether some corporate governance mechanisms are superior to others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students should develop an understanding of important issues in corporate governance and of its relevance in a social, political, and economic context.They will be able to apply theoretical models on principal-agent conflicts to different corporate governance problems. They will learn how firms’ ESG activities are measured and the challenges arising from different measurement approaches. know how to assess the effectiveness of different corporate governance mechanisms. addition to their knowledge on corporate governance theory, they will be able to critically discuss the empirical evidence on the importance and effectiveness of various corporate governance mechanisms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>and Insurance (FIN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Literature collection for self-study is provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Alexandra Niessen-Ruenzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
